--- a/design/인스타그램 클론코딩 분석.xlsx
+++ b/design/인스타그램 클론코딩 분석.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongMun\Desktop\프로젝트\인스타그램_클론코딩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인프로젝트\SNS클론코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,59 +235,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>자식컴포넌트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식컴포넌트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식컴포넌트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글게시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로우게시물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글게시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최상단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,45 +841,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,9 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,15 +863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -932,6 +891,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11923060" y="5040269"/>
-          <a:ext cx="3285567" cy="2502947"/>
+          <a:off x="11939309" y="4784215"/>
+          <a:ext cx="3324227" cy="2363433"/>
           <a:chOff x="11832177" y="5022959"/>
           <a:chExt cx="3280621" cy="2469088"/>
         </a:xfrm>
@@ -1726,42 +1730,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="3" width="39.8984375" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1">
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="17.25" thickTop="1">
       <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1813,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="31.5" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1835,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5">
       <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5">
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="33">
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="15.75" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1895,112 +1899,114 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5">
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5">
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="45"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.25" thickBot="1">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="48" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+    </row>
+    <row r="19" spans="2:11" ht="17.25" thickBot="1">
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" thickTop="1">
+      <c r="B21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1">
+      <c r="B22" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="40" t="s">
+      <c r="C22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="2:11">
+      <c r="B24" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="41" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2009,11 +2015,11 @@
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="43"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="2:11">
+      <c r="B25" s="42"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>46</v>
@@ -2022,57 +2028,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="43"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="54" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="43"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="52" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="37" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="43" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>58</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>59</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" ht="17.25" thickBot="1">
       <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/인스타그램 클론코딩 분석.xlsx
+++ b/design/인스타그램 클론코딩 분석.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,71 +227,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>루트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식컴포넌트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식컴포넌트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식컴포넌트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글게시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필(헤드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식컴포넌트3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로우게시물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글게시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최상단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드</t>
+    <t>프로필사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -765,13 +785,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,49 +973,67 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,7 +1065,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309286</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>156298</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -977,7 +1076,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11939309" y="4784215"/>
-          <a:ext cx="3324227" cy="2363433"/>
+          <a:ext cx="3324227" cy="2782533"/>
           <a:chOff x="11832177" y="5022959"/>
           <a:chExt cx="3280621" cy="2469088"/>
         </a:xfrm>
@@ -1728,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1748,22 +1847,22 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1">
       <c r="B4" s="17" t="s">
@@ -1906,10 +2005,10 @@
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1920,8 +2019,8 @@
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="47"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="2:11" ht="17.25" thickBot="1">
       <c r="B17" s="14" t="s">
@@ -1930,8 +2029,8 @@
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1">
       <c r="H19" s="23"/>
@@ -1941,34 +2040,34 @@
     </row>
     <row r="20" spans="2:11" ht="17.25" thickBot="1">
       <c r="B20" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>54</v>
-      </c>
       <c r="G20" s="24"/>
-      <c r="H20" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="H20" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="2:11" ht="18" customHeight="1" thickTop="1">
       <c r="B21" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -1977,7 +2076,7 @@
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1">
       <c r="B22" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -1995,90 +2094,114 @@
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="42"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="57"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="57"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="42"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>58</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+    <row r="29" spans="2:11">
+      <c r="B29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B31" s="52"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/인스타그램 클론코딩 분석.xlsx
+++ b/design/인스타그램 클론코딩 분석.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인프로젝트\SNS클론코딩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongMun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +313,149 @@
   </si>
   <si>
     <t>프로필사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물전체정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나침반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물전체정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정게시물정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/like/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1178,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2208,4 +2358,200 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="62"/>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="62"/>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="62"/>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="62"/>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="62"/>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="62"/>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="61"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design/인스타그램 클론코딩 분석.xlsx
+++ b/design/인스타그램 클론코딩 분석.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongMun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yis85\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자식컴포넌트1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,198 +252,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물전체정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나침반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물전체정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정게시물정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/like/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드리스트(CardList.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트(Home.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트(Detail.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트(Main.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트(Top.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필(헤드)(DetailHead.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지리스트(DetailImageList.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드(Card.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드(Card.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>댓글보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최상단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필(헤드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파라미터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물전체정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나침반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물전체정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정게시물정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/like/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comment/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comment/like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이징기법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
+    <t>자식컴포넌트4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글리스트(CommentList.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글내용(Comment.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측패널(Right.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지(DetailImageView.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필사진(DetailProfile.js)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필사진(DetailProfile.js)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -990,13 +1018,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1193,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,8 +1262,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,15 +1295,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>80684</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>145540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>309286</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>156298</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1225,8 +1313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11939309" y="4784215"/>
-          <a:ext cx="3324227" cy="2782533"/>
+          <a:off x="14111009" y="4784215"/>
+          <a:ext cx="3324227" cy="3201633"/>
           <a:chOff x="11832177" y="5022959"/>
           <a:chExt cx="3280621" cy="2469088"/>
         </a:xfrm>
@@ -1977,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1988,31 +2076,32 @@
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1">
       <c r="B4" s="17" t="s">
@@ -2025,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="17.25" thickTop="1">
@@ -2155,10 +2244,10 @@
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="41" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2169,64 +2258,68 @@
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" thickBot="1">
+      <c r="D16" s="60"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" thickBot="1">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="19" spans="2:11" ht="17.25" thickBot="1">
-      <c r="H19" s="23"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1">
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="2:11" ht="17.25" thickBot="1">
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.25" thickBot="1">
       <c r="B20" s="33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-    </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1" thickTop="1">
+      <c r="G20" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" ht="18" customHeight="1" thickTop="1">
       <c r="B21" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1">
+      <c r="G21" s="29"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" customHeight="1">
       <c r="B22" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -2234,121 +2327,155 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="G22" s="29"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="56" t="s">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>50</v>
+      <c r="C24" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="57"/>
-      <c r="C25" s="54"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="58"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="57"/>
-      <c r="C26" s="54"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="58"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="57"/>
-      <c r="C27" s="54"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="58"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="39" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="57"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="39" t="s">
-        <v>48</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="58"/>
-      <c r="C29" s="55"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="59"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="51" t="s">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B33" s="53"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B31" s="52"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="D15:D17"/>
@@ -2364,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2377,173 +2504,173 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="D1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="61" t="s">
-        <v>75</v>
+      <c r="B2" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="61" t="s">
-        <v>79</v>
+      <c r="B3" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="62" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="62"/>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="62"/>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="62"/>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="62"/>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="62" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="62"/>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="62"/>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="61"/>
+      <c r="B12" s="40"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
